--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675D6EC-F192-4E15-9F96-6913D317AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CFDFE-AC0A-48BC-A64C-8A162C6113A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,12 +140,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,10 +504,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="J21" activeCellId="14" sqref="D10 D12 D16 D18 F9 F10 F16 G10 G12 H12 H10 J9 J10 J16 J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -647,13 +656,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <v>5</v>
       </c>
       <c r="K9" s="2"/>
@@ -666,21 +675,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
         <v>5</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
@@ -710,15 +719,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -784,17 +793,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <v>5</v>
       </c>
       <c r="K16" s="2"/>
@@ -824,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
@@ -883,7 +892,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="J21" s="6">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\3ПКС-320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CFDFE-AC0A-48BC-A64C-8A162C6113A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E37234-0CD8-4C48-98E2-E3FD4A58C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Алексеев Дмитрий</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Лаб_12</t>
+  </si>
+  <si>
+    <t>Лаб_13</t>
+  </si>
+  <si>
+    <t>Лаб_14</t>
   </si>
 </sst>
 </file>
@@ -192,11 +198,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,10 +510,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J21" activeCellId="14" sqref="D10 D12 D16 D18 F9 F10 F16 G10 G12 H12 H10 J9 J10 J16 J21"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -518,29 +524,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
@@ -565,9 +572,14 @@
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -656,13 +668,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
       <c r="K9" s="2"/>
@@ -675,21 +687,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
@@ -719,15 +731,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="6">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -793,17 +805,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>5</v>
       </c>
       <c r="K16" s="2"/>
@@ -833,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
@@ -892,7 +904,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E37234-0CD8-4C48-98E2-E3FD4A58C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C731B3-2BBC-44D5-A983-1B47C2A7B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -754,13 +754,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -771,13 +775,23 @@
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -898,10 +912,14 @@
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="4">

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C731B3-2BBC-44D5-A983-1B47C2A7B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78C564-EB1E-4968-8A90-EE8930D1CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,9 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="4">
         <v>5</v>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78C564-EB1E-4968-8A90-EE8930D1CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4FF94-6082-43C5-A017-06AD80D93758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -778,14 +778,14 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
@@ -917,10 +917,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
         <v>5</v>
       </c>
       <c r="I21" s="2"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\3ПКС-320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4FF94-6082-43C5-A017-06AD80D93758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51AB74-C515-4FDB-BECB-1E966F770547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +159,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +189,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,6 +216,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,7 +533,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -524,27 +544,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -621,8 +641,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
       <c r="K6" s="2"/>
+      <c r="L6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -704,7 +729,12 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -730,7 +760,9 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
       <c r="D12" s="4">
         <v>5</v>
       </c>
@@ -743,8 +775,15 @@
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -774,7 +813,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
       <c r="D14" s="2">
         <v>5</v>
       </c>
@@ -833,8 +874,11 @@
         <v>5</v>
       </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -848,10 +892,17 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -867,10 +918,15 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -887,7 +943,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -904,7 +960,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -929,7 +985,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -943,10 +999,15 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -960,10 +1021,15 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -977,10 +1043,15 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -997,7 +1068,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1014,7 +1085,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51AB74-C515-4FDB-BECB-1E966F770547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1804046-6615-444D-8A95-0FBA760ECBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -639,8 +639,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
@@ -725,7 +729,9 @@
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="4">
         <v>5</v>
       </c>
@@ -774,7 +780,9 @@
       <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12" s="2">
         <v>5</v>
       </c>
@@ -829,7 +837,9 @@
       <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="2">
         <v>5</v>
       </c>
@@ -868,8 +878,12 @@
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
       <c r="J16" s="4">
         <v>5</v>
       </c>
@@ -890,8 +904,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
@@ -916,7 +934,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <v>5</v>
@@ -997,8 +1017,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
       <c r="J22" s="2">
         <v>5</v>
       </c>
@@ -1019,8 +1043,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
       <c r="J23" s="2">
         <v>5</v>
       </c>
@@ -1041,8 +1069,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
       <c r="J24" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1804046-6615-444D-8A95-0FBA760ECBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF29762-B8B2-4CB0-871C-5314B53543D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,9 @@
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -636,9 +638,13 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
@@ -877,7 +883,9 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
@@ -900,10 +908,14 @@
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
       <c r="H17" s="2">
         <v>5</v>
       </c>
@@ -933,7 +945,9 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
       <c r="H18" s="2">
         <v>5</v>
       </c>
@@ -1013,10 +1027,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
@@ -1039,10 +1059,14 @@
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
@@ -1065,10 +1089,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
       <c r="H24" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF29762-B8B2-4CB0-871C-5314B53543D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990CDD25-6E07-4B92-A133-FB187C4587CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Safonova N. N." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -533,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -628,6 +641,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+      <c r="N5">
+        <f>SUM(C5:L5)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -656,6 +673,13 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N26" si="0">SUM(C6:L6)</f>
+        <v>30</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
@@ -675,6 +699,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -692,6 +720,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -713,6 +745,10 @@
         <v>5</v>
       </c>
       <c r="K9" s="2"/>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -745,6 +781,13 @@
         <v>5</v>
       </c>
       <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P10">
         <v>5</v>
       </c>
     </row>
@@ -764,6 +807,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -796,6 +843,13 @@
         <v>5</v>
       </c>
       <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P12">
         <v>5</v>
       </c>
     </row>
@@ -819,6 +873,10 @@
         <v>5</v>
       </c>
       <c r="K13" s="2"/>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -850,6 +908,13 @@
         <v>5</v>
       </c>
       <c r="K14" s="2"/>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -867,6 +932,10 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -899,8 +968,15 @@
       <c r="L16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -931,8 +1007,15 @@
       <c r="L17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -959,8 +1042,15 @@
       <c r="L18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -976,8 +1066,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -993,8 +1087,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1018,8 +1116,15 @@
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1050,8 +1155,15 @@
       <c r="L22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1080,8 +1192,15 @@
       <c r="L23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1112,8 +1231,15 @@
       <c r="L24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1129,8 +1255,12 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1146,8 +1276,12 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1163,6 +1297,18 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N5:N26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990CDD25-6E07-4B92-A133-FB187C4587CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074FBEB-FBE0-4094-A76C-851C6E9DF3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -697,11 +697,16 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
       <c r="K7" s="2"/>
+      <c r="L7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -805,11 +810,16 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
       <c r="K11" s="2"/>
+      <c r="L11">
+        <v>5</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -944,7 +954,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
       <c r="D16" s="4">
         <v>5</v>
       </c>
@@ -970,7 +982,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P16">
         <v>5</v>
@@ -983,7 +995,9 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
@@ -1009,7 +1023,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P17">
         <v>5</v>
@@ -1064,11 +1078,16 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
       <c r="K19" s="2"/>
+      <c r="L19">
+        <v>5</v>
+      </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
@@ -1253,11 +1272,16 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
       <c r="K25" s="2"/>
+      <c r="L25">
+        <v>5</v>
+      </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074FBEB-FBE0-4094-A76C-851C6E9DF3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6617C-4C8F-4D6D-9CA9-2BD7352B4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -691,12 +691,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
       <c r="J7" s="2">
         <v>5</v>
       </c>
@@ -706,7 +714,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -807,7 +815,9 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
@@ -819,7 +829,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -934,8 +944,12 @@
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -944,7 +958,7 @@
       <c r="K15" s="2"/>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -1072,12 +1086,20 @@
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
       <c r="J19" s="2">
         <v>5</v>
       </c>
@@ -1087,7 +1109,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
@@ -1266,12 +1288,24 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="2">
         <v>5</v>
       </c>
@@ -1281,7 +1315,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6617C-4C8F-4D6D-9CA9-2BD7352B4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137218C-3C99-4BCC-A64A-3D8D71C46394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137218C-3C99-4BCC-A64A-3D8D71C46394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9192EB4-A7C7-44EE-83D3-1B03D0033B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Алексеев Дмитрий</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Лаб_14</t>
+  </si>
+  <si>
+    <t>Лаб_18</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -611,6 +614,9 @@
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
@@ -1309,13 +1315,15 @@
       <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
       <c r="L25">
         <v>5</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.25">

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9192EB4-A7C7-44EE-83D3-1B03D0033B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3D302-74E9-480B-BC90-CA1C40A24DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,9 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
@@ -766,7 +768,7 @@
       <c r="K9" s="2"/>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -1146,7 +1148,9 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
@@ -1165,7 +1169,7 @@
       <c r="K21" s="2"/>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>5</v>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEB2486-0A0E-4609-9A2C-DFB3961B8C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF8419-D653-498B-9E1F-D497A54CFE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1146,9 @@
         <v>17</v>
       </c>
       <c r="C21" s="2"/>
+      <c r="F21">
+        <v>5</v>
+      </c>
       <c r="L21" s="2">
         <v>5</v>
       </c>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF8419-D653-498B-9E1F-D497A54CFE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0126F487-D19C-4131-B5BB-9FFE0E716AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Алексеев Дмитрий</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Л_18</t>
-  </si>
-  <si>
-    <t>Л_5</t>
-  </si>
-  <si>
-    <t>Л_4</t>
   </si>
   <si>
     <t>Л_3</t>
@@ -180,7 +174,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,10 +240,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,95 +548,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="R24" activeCellId="13" sqref="R5 R6 R9 R10 R11 R15 R16 R17 R18 R19 R21 R22 R23 R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="12" width="3.7265625" customWidth="1"/>
-    <col min="13" max="22" width="3.81640625" customWidth="1"/>
+    <col min="3" max="10" width="3.7265625" customWidth="1"/>
+    <col min="11" max="20" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -658,18 +638,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -677,29 +657,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2">
-        <v>5</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -707,29 +687,29 @@
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-      <c r="R6" s="2">
-        <v>5</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -737,16 +717,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -759,20 +739,20 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -782,10 +762,16 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
       <c r="N9" s="4">
         <v>5</v>
       </c>
@@ -795,20 +781,14 @@
       <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q9" s="2">
-        <v>5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="2">
-        <v>5</v>
-      </c>
-      <c r="T9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -819,32 +799,32 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>5</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -854,31 +834,31 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
       <c r="O11" s="4">
         <v>5</v>
       </c>
       <c r="P11" s="4">
         <v>5</v>
       </c>
-      <c r="Q11" s="2">
-        <v>5</v>
-      </c>
-      <c r="R11" s="2">
-        <v>5</v>
-      </c>
-      <c r="S11" s="2">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="4">
+        <v>5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -886,20 +866,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="L12" s="2">
-        <v>5</v>
-      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="4">
+        <v>5</v>
+      </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -909,28 +889,28 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="2">
-        <v>5</v>
-      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="4">
         <v>5</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
       <c r="O13" s="4">
         <v>5</v>
       </c>
       <c r="P13" s="4">
         <v>5</v>
       </c>
-      <c r="Q13" s="2">
-        <v>5</v>
-      </c>
-      <c r="R13" s="2">
-        <v>5</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -938,20 +918,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="L14" s="2">
-        <v>5</v>
-      </c>
-      <c r="M14" s="2">
-        <v>5</v>
-      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -961,31 +941,31 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
       <c r="N15" s="4">
         <v>5</v>
       </c>
-      <c r="O15" s="2">
-        <v>5</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>5</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -995,31 +975,31 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-      <c r="R16" s="2">
-        <v>5</v>
-      </c>
-      <c r="S16" s="2">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5</v>
+      </c>
+      <c r="R16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1030,27 +1010,27 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="4">
         <v>5</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <v>5</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1058,29 +1038,29 @@
         <v>14</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="L18" s="2">
-        <v>5</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
-        <v>5</v>
-      </c>
-      <c r="P18" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>5</v>
-      </c>
-      <c r="R18" s="2">
-        <v>5</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1088,27 +1068,27 @@
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2">
-        <v>5</v>
-      </c>
-      <c r="P19" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>5</v>
-      </c>
-      <c r="R19" s="2">
-        <v>5</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1121,24 +1101,24 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="L20" s="2">
-        <v>5</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="4">
-        <v>5</v>
-      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="4">
         <v>5</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="4">
-        <v>5</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1149,31 +1129,31 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="L21" s="2">
-        <v>5</v>
-      </c>
-      <c r="M21" s="2">
-        <v>5</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>5</v>
-      </c>
-      <c r="R21" s="2">
-        <v>5</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1181,29 +1161,29 @@
         <v>18</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2">
-        <v>5</v>
-      </c>
-      <c r="P22" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>5</v>
-      </c>
-      <c r="R22" s="2">
-        <v>5</v>
-      </c>
-      <c r="S22" s="2"/>
-      <c r="T22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1211,31 +1191,31 @@
         <v>19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="L23" s="2">
-        <v>5</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2">
-        <v>5</v>
-      </c>
-      <c r="P23" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>5</v>
-      </c>
-      <c r="R23" s="2">
-        <v>5</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1246,35 +1226,35 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="L24" s="2">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5</v>
-      </c>
-      <c r="N24" s="2">
-        <v>5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>5</v>
-      </c>
-      <c r="P24" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>5</v>
-      </c>
-      <c r="R24" s="2">
-        <v>5</v>
-      </c>
-      <c r="S24" s="2">
-        <v>5</v>
-      </c>
-      <c r="T24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1282,16 +1262,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1299,8 +1279,6 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0126F487-D19C-4131-B5BB-9FFE0E716AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A940E0-27B0-4723-91D1-9523FAC5F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R24" activeCellId="13" sqref="R5 R6 R9 R10 R11 R15 R16 R17 R18 R19 R21 R22 R23 R24"/>
+      <selection pane="bottomRight" activeCell="F24" activeCellId="5" sqref="F8 F10 F17 F20 F21 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -733,10 +733,10 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
         <v>5</v>
       </c>
       <c r="J8" s="2"/>
@@ -759,7 +759,7 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="J9" s="4">
@@ -796,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>5</v>
       </c>
       <c r="G10" s="5">
@@ -831,7 +831,7 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="4">
@@ -886,7 +886,7 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="J13" s="4">
@@ -938,7 +938,7 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -972,7 +972,7 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>5</v>
       </c>
       <c r="J16" s="4">
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -1095,10 +1095,10 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20">
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="J20" s="4">
@@ -1126,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>5</v>
       </c>
       <c r="J21" s="4">
@@ -1223,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>5</v>
       </c>
       <c r="J24" s="4">

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A940E0-27B0-4723-91D1-9523FAC5F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095667C7-8DB6-49D2-B864-FB926EFE9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" activeCellId="5" sqref="F8 F10 F17 F20 F21 F24"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -565,8 +565,8 @@
     <col min="11" max="20" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
@@ -619,7 +619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -630,7 +630,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -648,8 +648,15 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <f>SUM(C4:S4)</f>
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -678,8 +685,15 @@
       <c r="R5" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <f t="shared" ref="U5:U25" si="0">SUM(C5:S5)</f>
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -708,8 +722,15 @@
       <c r="R6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -725,8 +746,15 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -751,8 +779,15 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -787,8 +822,15 @@
       <c r="R9" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -823,8 +865,15 @@
       <c r="R10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -857,8 +906,15 @@
       <c r="R11" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -878,8 +934,15 @@
         <v>5</v>
       </c>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -909,8 +972,15 @@
         <v>5</v>
       </c>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -930,8 +1000,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -964,8 +1041,15 @@
       <c r="R15" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -998,8 +1082,15 @@
       <c r="R16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1029,8 +1120,15 @@
       <c r="R17" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1059,8 +1157,15 @@
       <c r="R18" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1087,8 +1192,15 @@
       <c r="R19" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1117,8 +1229,15 @@
         <v>5</v>
       </c>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1152,8 +1271,15 @@
       <c r="R21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1182,8 +1308,15 @@
       <c r="R22" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1214,8 +1347,15 @@
       <c r="R23" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1253,8 +1393,15 @@
       <c r="R24" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1270,8 +1417,15 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1282,6 +1436,30 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="U4:U25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095667C7-8DB6-49D2-B864-FB926EFE9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C69F2F-5114-4177-A017-B75013F88C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -772,16 +772,27 @@
       <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
       <c r="P8" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1112,17 +1123,21 @@
       <c r="N17" s="4">
         <v>5</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
       <c r="P17" s="4">
         <v>5</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
       <c r="R17" s="5">
         <v>5</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W17">
         <v>4</v>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\3ПКС-320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C69F2F-5114-4177-A017-B75013F88C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3BE78-50F4-4E1A-BA01-A5D5F0875D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/3ПКС-320/3ПКС-320.xlsx
+++ b/3ПКС-320/3ПКС-320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3BE78-50F4-4E1A-BA01-A5D5F0875D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218D0C4-94A5-447F-963C-2C6A96668B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="Q17" activeCellId="1" sqref="O17 Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -772,22 +772,22 @@
       <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
         <v>5</v>
       </c>
       <c r="P8" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="2">
-        <v>5</v>
-      </c>
-      <c r="R8">
+      <c r="Q8" s="4">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5">
         <v>5</v>
       </c>
       <c r="U8">
@@ -1123,13 +1123,13 @@
       <c r="N17" s="4">
         <v>5</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="4">
         <v>5</v>
       </c>
       <c r="P17" s="4">
         <v>5</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="4">
         <v>5</v>
       </c>
       <c r="R17" s="5">
